--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1354.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1354.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160598963515924</v>
+        <v>1.225560903549194</v>
       </c>
       <c r="B1">
-        <v>2.604451784069431</v>
+        <v>2.576617956161499</v>
       </c>
       <c r="C1">
-        <v>4.090721408853272</v>
+        <v>9.238280296325684</v>
       </c>
       <c r="D1">
-        <v>2.674098017447237</v>
+        <v>2.052587985992432</v>
       </c>
       <c r="E1">
-        <v>1.161728074865757</v>
+        <v>1.180825114250183</v>
       </c>
     </row>
   </sheetData>
